--- a/HeroesOfPymoli/5_Top_Spenders.xlsx
+++ b/HeroesOfPymoli/5_Top_Spenders.xlsx
@@ -451,7 +451,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Chamjask73</t>
+          <t>Hiaral50</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -459,19 +459,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$4.61</t>
+          <t>$1.40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$13.83</t>
+          <t>$4.19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Rarallo90</t>
+          <t>Raesty92</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -479,12 +479,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$3.02</t>
+          <t>$2.91</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$9.05</t>
+          <t>$8.73</t>
         </is>
       </c>
     </row>

--- a/HeroesOfPymoli/5_Top_Spenders.xlsx
+++ b/HeroesOfPymoli/5_Top_Spenders.xlsx
@@ -451,7 +451,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hiaral50</t>
+          <t>Saistyphos30</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -459,19 +459,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1.40</t>
+          <t>$3.44</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$4.19</t>
+          <t>$10.33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Raesty92</t>
+          <t>Iskadarya95</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -479,12 +479,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2.91</t>
+          <t>$4.37</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$8.73</t>
+          <t>$13.10</t>
         </is>
       </c>
     </row>

--- a/HeroesOfPymoli/5_Top_Spenders.xlsx
+++ b/HeroesOfPymoli/5_Top_Spenders.xlsx
@@ -411,7 +411,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Idastidru52</t>
+          <t>Iral74</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -419,19 +419,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$3.86</t>
+          <t>$3.40</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$15.45</t>
+          <t>$13.62</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Iral74</t>
+          <t>Idastidru52</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -439,19 +439,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$3.40</t>
+          <t>$3.86</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$13.62</t>
+          <t>$15.45</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Saistyphos30</t>
+          <t>Aina42</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -459,19 +459,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$3.44</t>
+          <t>$3.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$10.33</t>
+          <t>$9.22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Iskadarya95</t>
+          <t>Aelin32</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -479,12 +479,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$4.37</t>
+          <t>$2.99</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$13.10</t>
+          <t>$8.98</t>
         </is>
       </c>
     </row>
